--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/96.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/96.xlsx
@@ -479,13 +479,13 @@
         <v>-0.4041778584657639</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.313878800447541</v>
+        <v>-1.318812302946722</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.170967755365121</v>
+        <v>-0.1673906375423947</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1331203887525857</v>
+        <v>-0.1292162201574959</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4378209416041278</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.38707977153334</v>
+        <v>-1.388148526735885</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.23917244188383</v>
+        <v>-0.2351865105956492</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1355119475254942</v>
+        <v>-0.1335073014966766</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.4765031904246394</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.492255795810039</v>
+        <v>-1.491830921815585</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2842090852959997</v>
+        <v>-0.2815941391651822</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.140457130409402</v>
+        <v>-0.1382801987058571</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4972456382789979</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.648977357888179</v>
+        <v>-1.64427162289118</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2922554103249976</v>
+        <v>-0.2919488002259067</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1498744405957631</v>
+        <v>-0.1485983585643089</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.492457972218772</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.743833762258335</v>
+        <v>-1.738856458316427</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2913472604124523</v>
+        <v>-0.2910435704095433</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1653159092052135</v>
+        <v>-0.1662956014742132</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.464128799127039</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.58458047679056</v>
+        <v>-1.579127197171016</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2244011353481067</v>
+        <v>-0.2238536173140159</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1699077604511213</v>
+        <v>-0.1730848250969386</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4238539936434134</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.42250783845924</v>
+        <v>-1.420463771131967</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1499927044911267</v>
+        <v>-0.1473835985526728</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1515783167178535</v>
+        <v>-0.152785776489035</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3805537131177617</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.152893897943948</v>
+        <v>-1.150827929895313</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.009055722323800881</v>
+        <v>-0.005942899793983535</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1272831164851328</v>
+        <v>-0.1300280068960411</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3356225575637901</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7796457439359576</v>
+        <v>-0.7797581676389576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07686664777808513</v>
+        <v>0.08012693516508426</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1142434269852272</v>
+        <v>-0.1170175183579537</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2838215371391399</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4005208963620594</v>
+        <v>-0.4044717864960584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1156732659863474</v>
+        <v>0.1228946638439819</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07165528422151135</v>
+        <v>-0.0730248093307837</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2205806326028392</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0710191551739958</v>
+        <v>0.06488549314408835</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1292663137127074</v>
+        <v>0.1360891184415238</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02850547486291631</v>
+        <v>0.02787765418382556</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1418814972264118</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6122867233875777</v>
+        <v>0.6055997031312159</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04729483374482035</v>
+        <v>0.055728071517909</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1826383716758749</v>
+        <v>0.1791488567386031</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.04629457430116606</v>
       </c>
       <c r="E14" t="n">
-        <v>1.177537041542426</v>
+        <v>1.169912670411701</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09781788596250432</v>
+        <v>-0.09139513441059695</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3119402306067493</v>
+        <v>0.3080462823482958</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06351726963452126</v>
       </c>
       <c r="E15" t="n">
-        <v>1.823704684943525</v>
+        <v>1.817756449021163</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2627580587443691</v>
+        <v>-0.2598467228510972</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4928401890703371</v>
+        <v>0.4895740614909743</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1885263499239921</v>
       </c>
       <c r="E16" t="n">
-        <v>2.455378430946174</v>
+        <v>2.445347900561631</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4999370309201236</v>
+        <v>-0.4967424456972154</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6122546023295777</v>
+        <v>0.6073196397823063</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3250013923017763</v>
       </c>
       <c r="E17" t="n">
-        <v>3.067614556714555</v>
+        <v>3.056545932137376</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6372735344952686</v>
+        <v>-0.6312800370820884</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7979975403107097</v>
+        <v>0.7938086623378926</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4702998963054313</v>
       </c>
       <c r="E18" t="n">
-        <v>3.672800110251938</v>
+        <v>3.656780462598487</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7607425013029627</v>
+        <v>-0.754341650472419</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9380482732868539</v>
+        <v>0.9359093028336727</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6236522280732536</v>
       </c>
       <c r="E19" t="n">
-        <v>4.206606832720976</v>
+        <v>4.190664567616344</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9187547458934657</v>
+        <v>-0.9125641419880128</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091360623072722</v>
+        <v>1.088355844101632</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7783122828235118</v>
       </c>
       <c r="E20" t="n">
-        <v>4.751039785195649</v>
+        <v>4.733821438059562</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.134539633393135</v>
+        <v>-1.127623385586501</v>
       </c>
       <c r="G20" t="n">
-        <v>1.250286857768134</v>
+        <v>1.247457284567953</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.92186104527986</v>
       </c>
       <c r="E21" t="n">
-        <v>5.213758226166433</v>
+        <v>5.193288351931893</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.292497856204274</v>
+        <v>-1.284196022759368</v>
       </c>
       <c r="G21" t="n">
-        <v>1.427184824414541</v>
+        <v>1.423521563754451</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.040234608135927</v>
       </c>
       <c r="E22" t="n">
-        <v>5.617283397435598</v>
+        <v>5.596826663633876</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.498697527987128</v>
+        <v>-1.491248362627312</v>
       </c>
       <c r="G22" t="n">
-        <v>1.541585432529601</v>
+        <v>1.539055169188056</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.12751099385872</v>
       </c>
       <c r="E23" t="n">
-        <v>5.89184836102716</v>
+        <v>5.86843794993753</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.680926130213443</v>
+        <v>-1.671105846753991</v>
       </c>
       <c r="G23" t="n">
-        <v>1.704193908510285</v>
+        <v>1.700063432461104</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.184108569864709</v>
       </c>
       <c r="E24" t="n">
-        <v>6.195244894269897</v>
+        <v>6.172945579777449</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.851769277426851</v>
+        <v>-1.843755073455854</v>
       </c>
       <c r="G24" t="n">
-        <v>1.815418912027618</v>
+        <v>1.813661014126164</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.213638448861107</v>
       </c>
       <c r="E25" t="n">
-        <v>6.405887492393386</v>
+        <v>6.384662773295846</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.987517248679088</v>
+        <v>-1.978970127154908</v>
       </c>
       <c r="G25" t="n">
-        <v>1.915865840537864</v>
+        <v>1.916360796840682</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.221469810176697</v>
       </c>
       <c r="E26" t="n">
-        <v>6.503646472368269</v>
+        <v>6.484338796414092</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.091654448739105</v>
+        <v>-2.085710592961016</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980604372888756</v>
+        <v>1.980159058221029</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.212551725389339</v>
       </c>
       <c r="E27" t="n">
-        <v>6.557504726345709</v>
+        <v>6.537548789039168</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.178993795513218</v>
+        <v>-2.173957359623629</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062178719775916</v>
+        <v>2.062294063575097</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.191497626533555</v>
       </c>
       <c r="E28" t="n">
-        <v>6.667529570332316</v>
+        <v>6.64780724072032</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.236399236327521</v>
+        <v>-2.233348465841567</v>
       </c>
       <c r="G28" t="n">
-        <v>2.09335658670918</v>
+        <v>2.092156427178453</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.16084316442324</v>
       </c>
       <c r="E29" t="n">
-        <v>6.604678880162969</v>
+        <v>6.584591538528247</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.296640090534368</v>
+        <v>-2.293575449591551</v>
       </c>
       <c r="G29" t="n">
-        <v>2.136998884194532</v>
+        <v>2.138047198723804</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.121835534404144</v>
       </c>
       <c r="E30" t="n">
-        <v>6.574267538477431</v>
+        <v>6.551083434841892</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.330213166360768</v>
+        <v>-2.328779399135496</v>
       </c>
       <c r="G30" t="n">
-        <v>2.121091660244081</v>
+        <v>2.122478705930445</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.075562364293082</v>
       </c>
       <c r="E31" t="n">
-        <v>6.484442459828546</v>
+        <v>6.461931438362917</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.31095878216191</v>
+        <v>-2.310485726580456</v>
       </c>
       <c r="G31" t="n">
-        <v>2.101762083568541</v>
+        <v>2.105073472638722</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.022557122798498</v>
       </c>
       <c r="E32" t="n">
-        <v>6.307248103419685</v>
+        <v>6.286673105722599</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317574990085863</v>
+        <v>-2.316128082427772</v>
       </c>
       <c r="G32" t="n">
-        <v>2.041136506689739</v>
+        <v>2.042257823623558</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9641961748613808</v>
       </c>
       <c r="E33" t="n">
-        <v>6.126959905106188</v>
+        <v>6.102883712087103</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.336362158895631</v>
+        <v>-2.338815039688357</v>
       </c>
       <c r="G33" t="n">
-        <v>1.977712017620666</v>
+        <v>1.976542519099848</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9030053504443311</v>
       </c>
       <c r="E34" t="n">
-        <v>5.885355527166889</v>
+        <v>5.863745355373349</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.384795604191299</v>
+        <v>-2.381991581832709</v>
       </c>
       <c r="G34" t="n">
-        <v>1.892359066274234</v>
+        <v>1.893080330031143</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8412930371040113</v>
       </c>
       <c r="E35" t="n">
-        <v>5.661176823192585</v>
+        <v>5.638792825910865</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.371564648391485</v>
+        <v>-2.36958044303594</v>
       </c>
       <c r="G35" t="n">
-        <v>1.824298924516525</v>
+        <v>1.824401127882889</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7813360616659817</v>
       </c>
       <c r="E36" t="n">
-        <v>5.47091211627391</v>
+        <v>5.448890210918734</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.335647465355131</v>
+        <v>-2.330241637298541</v>
       </c>
       <c r="G36" t="n">
-        <v>1.735215550297822</v>
+        <v>1.736666838100185</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7250350261216857</v>
       </c>
       <c r="E37" t="n">
-        <v>5.107006809999644</v>
+        <v>5.086699001103194</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.273986714379875</v>
+        <v>-2.270050424726785</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649799816883481</v>
+        <v>1.649539928323299</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6725615483602093</v>
       </c>
       <c r="E38" t="n">
-        <v>4.836918353854807</v>
+        <v>4.811814286979723</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.171612522389629</v>
+        <v>-2.164912361700449</v>
       </c>
       <c r="G38" t="n">
-        <v>1.553752013271143</v>
+        <v>1.549852224820326</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.623162024428796</v>
       </c>
       <c r="E39" t="n">
-        <v>4.543099736088432</v>
+        <v>4.518302279312438</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.154383224892861</v>
+        <v>-2.147096124871136</v>
       </c>
       <c r="G39" t="n">
-        <v>1.442810259083446</v>
+        <v>1.437853395814811</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5743418918942055</v>
       </c>
       <c r="E40" t="n">
-        <v>4.272833154076504</v>
+        <v>4.249795055250056</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.125733431229005</v>
+        <v>-2.118098109737598</v>
       </c>
       <c r="G40" t="n">
-        <v>1.383224236445371</v>
+        <v>1.382113139848189</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5241337377249347</v>
       </c>
       <c r="E41" t="n">
-        <v>3.974917641367039</v>
+        <v>3.955376357718317</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.035901052339666</v>
+        <v>-2.028377424527213</v>
       </c>
       <c r="G41" t="n">
-        <v>1.26299073620713</v>
+        <v>1.261898620235131</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4712875791101455</v>
       </c>
       <c r="E42" t="n">
-        <v>3.71788931539538</v>
+        <v>3.700768791481385</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.940970915540918</v>
+        <v>-1.933604972922284</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158176803856977</v>
+        <v>1.157020445768977</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4155720551972557</v>
       </c>
       <c r="E43" t="n">
-        <v>3.448987878348452</v>
+        <v>3.429983892397185</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.873999969659027</v>
+        <v>-1.866142720857802</v>
       </c>
       <c r="G43" t="n">
-        <v>1.06556887354682</v>
+        <v>1.06412342593682</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3595228506427507</v>
       </c>
       <c r="E44" t="n">
-        <v>3.18152458867107</v>
+        <v>3.161653334153802</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.832914946404902</v>
+        <v>-1.825914015808995</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9332242743944915</v>
+        <v>0.930225335615765</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3050466628658086</v>
       </c>
       <c r="E45" t="n">
-        <v>2.922830347827685</v>
+        <v>2.903932945387053</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.748121923501334</v>
+        <v>-1.742826329075608</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8109759077907971</v>
+        <v>0.8097888886928883</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2549186694819703</v>
       </c>
       <c r="E46" t="n">
-        <v>2.672392678938388</v>
+        <v>2.655190392331302</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.697961971338166</v>
+        <v>-1.694624301402348</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7708654666373533</v>
+        <v>0.7687980385406266</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2095644768226843</v>
       </c>
       <c r="E47" t="n">
-        <v>2.372652106115287</v>
+        <v>2.355214751765564</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.651278393679451</v>
+        <v>-1.647609292826997</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6627372251208369</v>
+        <v>0.662110864489837</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1690913650692888</v>
       </c>
       <c r="E48" t="n">
-        <v>2.179460002774339</v>
+        <v>2.16379660685507</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.617200871237642</v>
+        <v>-1.613655874472915</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6003800312062173</v>
+        <v>0.5998982153362175</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.133386121735437</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982877667766301</v>
+        <v>1.966352843473396</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.567208824604928</v>
+        <v>-1.56496327064111</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5386871591729612</v>
+        <v>0.5389485077812338</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1014318845572336</v>
       </c>
       <c r="E50" t="n">
-        <v>1.869129701147877</v>
+        <v>1.854178808696971</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.493377112743857</v>
+        <v>-1.491974006528494</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4774542022883412</v>
+        <v>0.4776133475302503</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.07286053838150428</v>
       </c>
       <c r="E51" t="n">
-        <v>1.691711957381106</v>
+        <v>1.677764117968655</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433864092510327</v>
+        <v>-1.434640838094691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4199078668332658</v>
+        <v>0.4194946732235386</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.04664220464509104</v>
       </c>
       <c r="E52" t="n">
-        <v>1.573185253361138</v>
+        <v>1.559349837651687</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.393207593370884</v>
+        <v>-1.394848687425065</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3388810379801966</v>
+        <v>0.3387175125940148</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.02151474560797532</v>
       </c>
       <c r="E53" t="n">
-        <v>1.393137962982641</v>
+        <v>1.38267671841128</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.356020168495439</v>
+        <v>-1.357233468458984</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2729189853291234</v>
+        <v>0.2718954916173964</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.003628811991214888</v>
       </c>
       <c r="E54" t="n">
-        <v>1.34416356986929</v>
+        <v>1.330306253438476</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.336792795186263</v>
+        <v>-1.338420748807626</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2179875960048654</v>
+        <v>0.2201601475641376</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.03002214515654082</v>
       </c>
       <c r="E55" t="n">
-        <v>1.219406840645415</v>
+        <v>1.207822819092145</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.301747260860181</v>
+        <v>-1.302208636056908</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1665428015216974</v>
+        <v>0.16387967380388</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.05798711186262573</v>
       </c>
       <c r="E56" t="n">
-        <v>1.190005852238786</v>
+        <v>1.177756048756062</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.247377990050923</v>
+        <v>-1.249579742572013</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1074181540803497</v>
+        <v>0.103511065389078</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.0873814548038479</v>
       </c>
       <c r="E57" t="n">
-        <v>1.099967606568629</v>
+        <v>1.087046180964087</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.240603366909107</v>
+        <v>-1.241083722731015</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06491615415399744</v>
+        <v>0.06023523997454415</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.117875084369816</v>
       </c>
       <c r="E58" t="n">
-        <v>1.047328492747097</v>
+        <v>1.033133905207283</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.202469830870753</v>
+        <v>-1.203594067900753</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01227804846043638</v>
+        <v>-0.01687135975443515</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1487107527232164</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9381650771341266</v>
+        <v>0.9244026638292212</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.117392828613503</v>
+        <v>-1.119689484260503</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08813338697550692</v>
+        <v>-0.09348154313250548</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1798205254788069</v>
       </c>
       <c r="E60" t="n">
-        <v>0.91842376689695</v>
+        <v>0.8998665556615005</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.099551040942599</v>
+        <v>-1.100720539463417</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1139937587616818</v>
+        <v>-0.1204135902174073</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2108747016480623</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7850921752351677</v>
+        <v>0.7672795885260816</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.068690004445062</v>
+        <v>-1.071045062015697</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.142232548887947</v>
+        <v>-0.1491896780411269</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2415702461339267</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7455453126448147</v>
+        <v>0.727596941463274</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.063518514107063</v>
+        <v>-1.065715886483881</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2188266717370173</v>
+        <v>-0.2243602540015613</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2715679955975249</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6555333478402934</v>
+        <v>0.6364621996768439</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.098553828096508</v>
+        <v>-1.10056431431769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2330037386997408</v>
+        <v>-0.2395666548683754</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3005155523489237</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5708403382309525</v>
+        <v>0.5464502348723227</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.084073071130876</v>
+        <v>-1.086905564427239</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2816379406079095</v>
+        <v>-0.2901879822282709</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3282369975842737</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4877738221948839</v>
+        <v>0.4615338379050727</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.052641155829793</v>
+        <v>-1.054409274067884</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3131516186020828</v>
+        <v>-0.3228288173486257</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3543559349066628</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4382081096047154</v>
+        <v>0.4128602146984495</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.068714825262607</v>
+        <v>-1.070265396335152</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.342110212437166</v>
+        <v>-0.351512922142618</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3780333481521819</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4131098829219949</v>
+        <v>0.3843031340883662</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.086568293318239</v>
+        <v>-1.088843048243875</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3729216072996123</v>
+        <v>-0.385031246165609</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.398128280926025</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3341271213961979</v>
+        <v>0.3050575639062057</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.102745626165507</v>
+        <v>-1.104064049591598</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3850400064541545</v>
+        <v>-0.3953172849660608</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4131297860318009</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2319471158020435</v>
+        <v>0.2005677622322337</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.144710328394405</v>
+        <v>-1.145446192632223</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4066311976225123</v>
+        <v>-0.4187481367289636</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4213092872843617</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1695505005889693</v>
+        <v>0.1372235758081598</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.192773651499029</v>
+        <v>-1.193602958814665</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4245021862552348</v>
+        <v>-0.4355357696782318</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.42184207890668</v>
       </c>
       <c r="E71" t="n">
-        <v>0.115536021465802</v>
+        <v>0.08655260681317345</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.282057052306186</v>
+        <v>-1.279840699304187</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4862870413182182</v>
+        <v>-0.4961044046814883</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4141533369692361</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03177306249036997</v>
+        <v>-0.0001202280074396442</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.316899639947632</v>
+        <v>-1.31582066440845</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4808001805925833</v>
+        <v>-0.4900539653927626</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3988726332071581</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01797560803128277</v>
+        <v>-0.0135409900590724</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.307203460575907</v>
+        <v>-1.306045642439816</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5306783434742063</v>
+        <v>-0.5399978304384765</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3768678445180326</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04707144638691132</v>
+        <v>0.01647467859382863</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.347658473078805</v>
+        <v>-1.346169224026078</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5183511574426641</v>
+        <v>-0.5251579016424804</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.348719866950839</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0535964013051823</v>
+        <v>0.02201410105073623</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.398596630874428</v>
+        <v>-1.39652774272961</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4678028324873141</v>
+        <v>-0.4759528209307664</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3155448168097735</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1029562471145327</v>
+        <v>0.07366914245899508</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.344411326124624</v>
+        <v>-1.34273373086817</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4782115153274022</v>
+        <v>-0.4864023851174</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2781132726592225</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2161727562278659</v>
+        <v>0.1869498936883283</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.343111883323715</v>
+        <v>-1.341040075082716</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4245065663995075</v>
+        <v>-0.4320827559432328</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2373802680264019</v>
       </c>
       <c r="E78" t="n">
-        <v>0.297728122489844</v>
+        <v>0.2715056587771238</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.309133644152088</v>
+        <v>-1.307202000527816</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4275551468133248</v>
+        <v>-0.4335077628799596</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1943797528005485</v>
       </c>
       <c r="E79" t="n">
-        <v>0.388049617489638</v>
+        <v>0.3636755746600081</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.318352387798086</v>
+        <v>-1.322117851824539</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3958852436734243</v>
+        <v>-0.4016451333920591</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.150440325998401</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4868466916571569</v>
+        <v>0.4663125753066169</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337483397933262</v>
+        <v>-1.33807471741008</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3393930629399849</v>
+        <v>-0.3435994614898928</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1068077536964305</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5820797884347677</v>
+        <v>0.5651359303397722</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286346673597276</v>
+        <v>-1.286302872154549</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2885030867313622</v>
+        <v>-0.2921546670067249</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.06503967324309841</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7139016903705504</v>
+        <v>0.7010050855835539</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.218731846507294</v>
+        <v>-1.221107344751203</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2557600482446437</v>
+        <v>-0.2589648538041883</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02694320730400634</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8668139869795094</v>
+        <v>0.8564666261592394</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.164101227089763</v>
+        <v>-1.165305766764763</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2130142202871098</v>
+        <v>-0.2156817281491999</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.006964466351814426</v>
       </c>
       <c r="E84" t="n">
-        <v>1.033967592667192</v>
+        <v>1.025734381482558</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.072602933328697</v>
+        <v>-1.074264468056151</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1661525167613042</v>
+        <v>-0.1657991851233042</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.03698938088295745</v>
       </c>
       <c r="E85" t="n">
-        <v>1.123643746410804</v>
+        <v>1.120049108010987</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9991756547888078</v>
+        <v>-1.003294450453261</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1313289097450408</v>
+        <v>-0.131358110706859</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.06382161978610558</v>
       </c>
       <c r="E86" t="n">
-        <v>1.285117765024852</v>
+        <v>1.285189307381306</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9231932920898281</v>
+        <v>-0.9268463324132817</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0473265028826997</v>
+        <v>-0.04648697523042719</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.08863520489239496</v>
       </c>
       <c r="E87" t="n">
-        <v>1.38523180257037</v>
+        <v>1.383097212261462</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8229507703123096</v>
+        <v>-0.8265176677983995</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0176028438479804</v>
+        <v>-0.01753276153961679</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1111874706117612</v>
       </c>
       <c r="E88" t="n">
-        <v>1.471787833543711</v>
+        <v>1.470235802423075</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6967135523242526</v>
+        <v>-0.6989430457590702</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03290313971273331</v>
+        <v>0.03371492645127854</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1307290199266535</v>
       </c>
       <c r="E89" t="n">
-        <v>1.568267811390957</v>
+        <v>1.56777431513623</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5631571132564702</v>
+        <v>-0.5668247540608329</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0796115381889935</v>
+        <v>0.07920710486781178</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1454273308586274</v>
       </c>
       <c r="E90" t="n">
-        <v>1.626123677041305</v>
+        <v>1.628068461098396</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4365972246403225</v>
+        <v>-0.4385595292745038</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09133426431089943</v>
+        <v>0.09234607763789916</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1528149754197398</v>
       </c>
       <c r="E91" t="n">
-        <v>1.66715102839584</v>
+        <v>1.672085990943111</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2742238164022751</v>
+        <v>-0.278511977645274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1045637600626231</v>
+        <v>0.1065800864761681</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1516601857962852</v>
       </c>
       <c r="E92" t="n">
-        <v>1.696283367953741</v>
+        <v>1.701908933248012</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1176073777866808</v>
+        <v>-0.1194236776117713</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1051039778562594</v>
+        <v>0.1034526634654416</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1419586441387281</v>
       </c>
       <c r="E93" t="n">
-        <v>1.691304603963742</v>
+        <v>1.698054406288013</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03832429827427731</v>
+        <v>0.03880173400000445</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09999088944189712</v>
+        <v>0.09916596227053369</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1245525504431251</v>
       </c>
       <c r="E94" t="n">
-        <v>1.638786674133757</v>
+        <v>1.646517628775118</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1451282761723395</v>
+        <v>0.1488119775057022</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06094482334672578</v>
+        <v>0.06027904141727141</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1013625221300979</v>
       </c>
       <c r="E95" t="n">
-        <v>1.546193344304509</v>
+        <v>1.556355279017233</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2290299397164079</v>
+        <v>0.2335108273074067</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01236902336219337</v>
+        <v>0.01152657561373905</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.07511305945116145</v>
       </c>
       <c r="E96" t="n">
-        <v>1.423190132837814</v>
+        <v>1.433340387165812</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3071352123395688</v>
+        <v>0.3128980221543854</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02598351988979634</v>
+        <v>-0.02853130380843202</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04903275374713792</v>
       </c>
       <c r="E97" t="n">
-        <v>1.268134485631402</v>
+        <v>1.27907462597658</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3586033675921913</v>
+        <v>0.3627046426795538</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04660085898151807</v>
+        <v>-0.0490551998223356</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02470558772323216</v>
       </c>
       <c r="E98" t="n">
-        <v>1.137928856932255</v>
+        <v>1.146458457879343</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3784585615804587</v>
+        <v>0.3820225389703668</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08316776341832643</v>
+        <v>-0.08624846489014379</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.005082209107681035</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9870328867368408</v>
+        <v>0.9929154204951118</v>
       </c>
       <c r="F99" t="n">
-        <v>0.374487230773187</v>
+        <v>0.3771007168559136</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1239746475111337</v>
+        <v>-0.126608574267133</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.0121543467334122</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8814874702931418</v>
+        <v>0.8847857189305045</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3453943125137403</v>
+        <v>0.3464659878124673</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1377721019702209</v>
+        <v>-0.1409418663755836</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02677063825155654</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7429873083895426</v>
+        <v>0.7446634435979058</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3480647404720123</v>
+        <v>0.3477041085935579</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1311318032527681</v>
+        <v>-0.1335335823623129</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0485219415167652</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6277588530069372</v>
+        <v>0.6310498014038454</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3046910918353876</v>
+        <v>0.3052196292442966</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945825731874783</v>
+        <v>-0.194683316505751</v>
       </c>
     </row>
   </sheetData>
